--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il27</t>
+  </si>
+  <si>
+    <t>Il27ra</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il27</t>
-  </si>
-  <si>
-    <t>Il27ra</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.068744333333333</v>
+        <v>0.148825</v>
       </c>
       <c r="H2">
-        <v>3.206233</v>
+        <v>0.446475</v>
       </c>
       <c r="I2">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="J2">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.087864</v>
+        <v>2.185458333333334</v>
       </c>
       <c r="N2">
-        <v>3.263592</v>
+        <v>6.556375</v>
       </c>
       <c r="O2">
-        <v>0.3655718228968423</v>
+        <v>0.4976439168256567</v>
       </c>
       <c r="P2">
-        <v>0.3655718228968423</v>
+        <v>0.4976439168256567</v>
       </c>
       <c r="Q2">
-        <v>1.162648485437333</v>
+        <v>0.3252508364583334</v>
       </c>
       <c r="R2">
-        <v>10.463836368936</v>
+        <v>2.927257528125</v>
       </c>
       <c r="S2">
-        <v>0.1445031729741452</v>
+        <v>0.1213177468841292</v>
       </c>
       <c r="T2">
-        <v>0.1445031729741452</v>
+        <v>0.1213177468841292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.068744333333333</v>
+        <v>0.148825</v>
       </c>
       <c r="H3">
-        <v>3.206233</v>
+        <v>0.446475</v>
       </c>
       <c r="I3">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="J3">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.228446</v>
       </c>
       <c r="O3">
-        <v>0.5856652838766928</v>
+        <v>0.396851056620684</v>
       </c>
       <c r="P3">
-        <v>0.5856652838766928</v>
+        <v>0.396851056620684</v>
       </c>
       <c r="Q3">
-        <v>1.862624011546445</v>
+        <v>0.2593744919833333</v>
       </c>
       <c r="R3">
-        <v>16.763616103918</v>
+        <v>2.33437042785</v>
       </c>
       <c r="S3">
-        <v>0.2315016818045815</v>
+        <v>0.09674603548841205</v>
       </c>
       <c r="T3">
-        <v>0.2315016818045815</v>
+        <v>0.09674603548841205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.068744333333333</v>
+        <v>0.148825</v>
       </c>
       <c r="H4">
-        <v>3.206233</v>
+        <v>0.446475</v>
       </c>
       <c r="I4">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="J4">
-        <v>0.395279843586089</v>
+        <v>0.2437842456871251</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145108</v>
+        <v>0.4633369999999999</v>
       </c>
       <c r="N4">
-        <v>0.435324</v>
+        <v>1.390011</v>
       </c>
       <c r="O4">
-        <v>0.04876289322646489</v>
+        <v>0.1055050265536593</v>
       </c>
       <c r="P4">
-        <v>0.04876289322646488</v>
+        <v>0.1055050265536593</v>
       </c>
       <c r="Q4">
-        <v>0.1550833527213333</v>
+        <v>0.06895612902499999</v>
       </c>
       <c r="R4">
-        <v>1.395750174492</v>
+        <v>0.620605161225</v>
       </c>
       <c r="S4">
-        <v>0.0192749888073622</v>
+        <v>0.02572046331458393</v>
       </c>
       <c r="T4">
-        <v>0.0192749888073622</v>
+        <v>0.02572046331458393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.148825</v>
+        <v>0.4616533333333333</v>
       </c>
       <c r="H5">
-        <v>0.446475</v>
+        <v>1.38496</v>
       </c>
       <c r="I5">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128748</v>
       </c>
       <c r="J5">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128749</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.087864</v>
+        <v>2.185458333333334</v>
       </c>
       <c r="N5">
-        <v>3.263592</v>
+        <v>6.556375</v>
       </c>
       <c r="O5">
-        <v>0.3655718228968423</v>
+        <v>0.4976439168256567</v>
       </c>
       <c r="P5">
-        <v>0.3655718228968423</v>
+        <v>0.4976439168256567</v>
       </c>
       <c r="Q5">
-        <v>0.1619013598</v>
+        <v>1.008924124444444</v>
       </c>
       <c r="R5">
-        <v>1.4571122382</v>
+        <v>9.08031712</v>
       </c>
       <c r="S5">
-        <v>0.02012238479038532</v>
+        <v>0.3763261699415275</v>
       </c>
       <c r="T5">
-        <v>0.02012238479038532</v>
+        <v>0.3763261699415276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.148825</v>
+        <v>0.4616533333333333</v>
       </c>
       <c r="H6">
-        <v>0.446475</v>
+        <v>1.38496</v>
       </c>
       <c r="I6">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128748</v>
       </c>
       <c r="J6">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128749</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.228446</v>
       </c>
       <c r="O6">
-        <v>0.5856652838766928</v>
+        <v>0.396851056620684</v>
       </c>
       <c r="P6">
-        <v>0.5856652838766928</v>
+        <v>0.396851056620684</v>
       </c>
       <c r="Q6">
-        <v>0.2593744919833333</v>
+        <v>0.8045765080177778</v>
       </c>
       <c r="R6">
-        <v>2.33437042785</v>
+        <v>7.24118857216</v>
       </c>
       <c r="S6">
-        <v>0.032237118569892</v>
+        <v>0.3001050211322719</v>
       </c>
       <c r="T6">
-        <v>0.032237118569892</v>
+        <v>0.300105021132272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +829,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.148825</v>
+        <v>0.4616533333333333</v>
       </c>
       <c r="H7">
-        <v>0.446475</v>
+        <v>1.38496</v>
       </c>
       <c r="I7">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128748</v>
       </c>
       <c r="J7">
-        <v>0.05504358796291445</v>
+        <v>0.7562157543128749</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.145108</v>
+        <v>0.4633369999999999</v>
       </c>
       <c r="N7">
-        <v>0.435324</v>
+        <v>1.390011</v>
       </c>
       <c r="O7">
-        <v>0.04876289322646489</v>
+        <v>0.1055050265536593</v>
       </c>
       <c r="P7">
-        <v>0.04876289322646488</v>
+        <v>0.1055050265536593</v>
       </c>
       <c r="Q7">
-        <v>0.0215956981</v>
+        <v>0.2139010705066666</v>
       </c>
       <c r="R7">
-        <v>0.1943612829</v>
+        <v>1.92510963456</v>
       </c>
       <c r="S7">
-        <v>0.002684084602637126</v>
+        <v>0.07978456323907532</v>
       </c>
       <c r="T7">
-        <v>0.002684084602637125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>1.486197</v>
-      </c>
-      <c r="H8">
-        <v>4.458591</v>
-      </c>
-      <c r="I8">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="J8">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.087864</v>
-      </c>
-      <c r="N8">
-        <v>3.263592</v>
-      </c>
-      <c r="O8">
-        <v>0.3655718228968423</v>
-      </c>
-      <c r="P8">
-        <v>0.3655718228968423</v>
-      </c>
-      <c r="Q8">
-        <v>1.616780213208</v>
-      </c>
-      <c r="R8">
-        <v>14.551021918872</v>
-      </c>
-      <c r="S8">
-        <v>0.2009462651323117</v>
-      </c>
-      <c r="T8">
-        <v>0.2009462651323117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>1.486197</v>
-      </c>
-      <c r="H9">
-        <v>4.458591</v>
-      </c>
-      <c r="I9">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="J9">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.742815333333333</v>
-      </c>
-      <c r="N9">
-        <v>5.228446</v>
-      </c>
-      <c r="O9">
-        <v>0.5856652838766928</v>
-      </c>
-      <c r="P9">
-        <v>0.5856652838766928</v>
-      </c>
-      <c r="Q9">
-        <v>2.590166919954</v>
-      </c>
-      <c r="R9">
-        <v>23.311502279586</v>
-      </c>
-      <c r="S9">
-        <v>0.3219264835022193</v>
-      </c>
-      <c r="T9">
-        <v>0.3219264835022193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>1.486197</v>
-      </c>
-      <c r="H10">
-        <v>4.458591</v>
-      </c>
-      <c r="I10">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="J10">
-        <v>0.5496765684509965</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.145108</v>
-      </c>
-      <c r="N10">
-        <v>0.435324</v>
-      </c>
-      <c r="O10">
-        <v>0.04876289322646489</v>
-      </c>
-      <c r="P10">
-        <v>0.04876289322646488</v>
-      </c>
-      <c r="Q10">
-        <v>0.215659074276</v>
-      </c>
-      <c r="R10">
-        <v>1.940931668484</v>
-      </c>
-      <c r="S10">
-        <v>0.02680381981646556</v>
-      </c>
-      <c r="T10">
-        <v>0.02680381981646556</v>
+        <v>0.07978456323907535</v>
       </c>
     </row>
   </sheetData>
